--- a/Speed Profile Calculator.xlsx
+++ b/Speed Profile Calculator.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chad McColm\OneDrive\Dev\PythonVehicle\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chad McColm\Documents\Dev\PythonVehicle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{98C1CC04-B297-48F8-836B-DF089BCA753F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{69015C7C-E26A-44A8-981D-3C1CEEBDAA8B}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC17BFD0-3603-4404-89FD-A03618713751}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{60343684-AAFE-42BD-B517-AE1022CDC464}"/>
+    <workbookView xWindow="2730" yWindow="900" windowWidth="18360" windowHeight="12135" activeTab="1" xr2:uid="{60343684-AAFE-42BD-B517-AE1022CDC464}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="20200906 Car" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -24223,7 +24223,7 @@
         <v>8.6999999999999993</v>
       </c>
       <c r="E1796" s="2" t="str">
-        <f t="shared" ref="E1796:E1803" si="28">_xlfn.CONCAT("[", A1796, ", ", B1796, "],")</f>
+        <f t="shared" ref="E1796:E1802" si="28">_xlfn.CONCAT("[", A1796, ", ", B1796, "],")</f>
         <v>[1793, 8.7],</v>
       </c>
     </row>
